--- a/data/trans_bre/P45C_R1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,84</t>
+          <t>-0,82; 0,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,26</t>
+          <t>-0,59; 1,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,66</t>
+          <t>-1,02; 0,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,61; 158,26</t>
+          <t>-57,14; 160,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,1; 182,46</t>
+          <t>-38,46; 192,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-75,27; 158,54</t>
+          <t>-68,6; 239,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,0</t>
+          <t>-1,09; 0,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,85</t>
+          <t>-0,78; 0,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,08</t>
+          <t>-0,29; 0,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,17; 57,86</t>
+          <t>-42,62; 63,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 80,1</t>
+          <t>-43,26; 81,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 167,82</t>
+          <t>-27,69; 154,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,18</t>
+          <t>-1,51; 2,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 3,28</t>
+          <t>-0,4; 3,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,46</t>
+          <t>-1,14; 1,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-64,0; 248,0</t>
+          <t>-58,06; 250,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,36; 722,13</t>
+          <t>-35,59; 760,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-80,39; 798,04</t>
+          <t>-82,76; 524,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,63</t>
+          <t>-0,66; 0,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,89</t>
+          <t>-0,26; 0,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,69</t>
+          <t>-0,32; 0,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 46,72</t>
+          <t>-33,9; 46,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 85,35</t>
+          <t>-17,23; 87,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 101,67</t>
+          <t>-27,53; 100,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P45C_R1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,81</t>
+          <t>-0,81; 0,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,23</t>
+          <t>-0,51; 1,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,78</t>
+          <t>-1,16; 0,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -0,0</t>
+          <t>-2,97; 0,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-57,14; 160,12</t>
+          <t>-55,85; 184,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 192,21</t>
+          <t>-36,52; 230,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-68,6; 239,49</t>
+          <t>-73,79; 188,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-79,15; 6,42</t>
+          <t>-79,29; 24,04</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,97</t>
+          <t>-1,07; 1,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 0,84</t>
+          <t>-0,72; 0,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,98</t>
+          <t>-0,3; 1,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,81</t>
+          <t>-0,96; 0,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 63,39</t>
+          <t>-41,05; 62,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,26; 81,03</t>
+          <t>-38,74; 85,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 154,73</t>
+          <t>-27,88; 165,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 72,78</t>
+          <t>-47,19; 65,97</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,09</t>
+          <t>-1,29; 2,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,17</t>
+          <t>-0,41; 3,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,44</t>
+          <t>-1,29; 1,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,56</t>
+          <t>-1,6; 1,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,06; 250,05</t>
+          <t>-58,72; 242,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,59; 760,04</t>
+          <t>-34,78; 708,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-82,76; 524,0</t>
+          <t>-81,38; 772,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-57,82; 157,45</t>
+          <t>-60,78; 178,82</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,62</t>
+          <t>-0,63; 0,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,9</t>
+          <t>-0,29; 0,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,67</t>
+          <t>-0,32; 0,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,26</t>
+          <t>-0,95; 0,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 46,22</t>
+          <t>-31,66; 48,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 87,6</t>
+          <t>-18,47; 92,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 100,24</t>
+          <t>-28,87; 102,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,26; 20,25</t>
+          <t>-42,83; 25,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-52,44%</t>
+          <t>-49,97%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,18</t>
+          <t>-2,89; 0,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-79,29; 24,04</t>
+          <t>-78,2; 29,9</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,41%</t>
+          <t>-2,43%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,69</t>
+          <t>-0,94; 0,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 65,97</t>
+          <t>-47,24; 80,05</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>6,09%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,61</t>
+          <t>-1,9; 1,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-60,78; 178,82</t>
+          <t>-64,99; 174,55</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,05%</t>
+          <t>-11,79%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,34</t>
+          <t>-0,89; 0,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 25,57</t>
+          <t>-42,72; 39,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,87</t>
+          <t>-0,81; 0,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,32</t>
+          <t>-0,61; 1,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,7</t>
+          <t>-1,08; 0,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 0,27</t>
+          <t>-2,69; 0,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-55,85; 184,67</t>
+          <t>-59,69; 136,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,52; 230,55</t>
+          <t>-44,93; 193,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-73,79; 188,5</t>
+          <t>-74,54; 153,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-78,2; 29,9</t>
+          <t>-78,56; 16,41</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,02</t>
+          <t>-1,09; 0,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,85</t>
+          <t>-0,77; 0,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,01</t>
+          <t>-0,37; 1,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,75</t>
+          <t>-0,91; 0,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,05; 62,58</t>
+          <t>-43,34; 62,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,74; 85,37</t>
+          <t>-42,72; 90,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 165,42</t>
+          <t>-31,98; 152,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,24; 80,05</t>
+          <t>-48,33; 86,01</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,34</t>
+          <t>-1,51; 2,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,23</t>
+          <t>-0,52; 3,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,38</t>
+          <t>-1,28; 1,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,51</t>
+          <t>-1,91; 1,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,72; 242,47</t>
+          <t>-60,4; 258,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,78; 708,48</t>
+          <t>-42,55; 605,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-81,38; 772,05</t>
+          <t>-84,22; 708,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-64,99; 174,55</t>
+          <t>-61,03; 126,66</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,65</t>
+          <t>-0,71; 0,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,91</t>
+          <t>-0,26; 0,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,7</t>
+          <t>-0,31; 0,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,44</t>
+          <t>-0,87; 0,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 48,2</t>
+          <t>-35,19; 44,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 92,99</t>
+          <t>-19,36; 81,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,87; 102,65</t>
+          <t>-27,67; 97,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,72; 39,24</t>
+          <t>-42,38; 36,46</t>
         </is>
       </c>
     </row>
